--- a/workSpace/林汉升_研发中心评级表.xlsx
+++ b/workSpace/林汉升_研发中心评级表.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="-480" windowWidth="19320" windowHeight="11475" tabRatio="684" activeTab="2"/>
+    <workbookView xWindow="-90" yWindow="-480" windowWidth="21690" windowHeight="11475" tabRatio="684" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="研发基础能力(公共）" sheetId="18" r:id="rId1"/>
@@ -705,27 +705,27 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>广州市云梯科技公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>林先生</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（程序员）实习生</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>1、熟悉系统分析基本方法、相关概念和基本职责，具备一定抽象能力，能熟练应用系统分析工具，能分析现存的目标行业的某特定模块内的各种流程，并完成业务模型或者产品模型；
 2、能对模型的优劣、可行性及扩展能力提出建议                3、时常会针对特定的应用场景，思考与设计对应的需求模型。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>广州市云梯科技公司</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>林先生</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>（程序员）实习生</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="9">
     <font>
       <sz val="12"/>
@@ -1048,6 +1048,15 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1057,33 +1066,72 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
@@ -1105,56 +1153,8 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1163,11 +1163,16 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1241,6 +1246,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -1275,6 +1281,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1450,7 +1457,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1468,16 +1475,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="18.75" customHeight="1">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="35" t="s">
         <v>64</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32"/>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
     </row>
     <row r="2" spans="1:16" s="3" customFormat="1" ht="18" customHeight="1">
       <c r="A2" s="2" t="s">
@@ -1492,24 +1499,24 @@
       <c r="D2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="33" t="s">
+      <c r="E2" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="33"/>
-      <c r="G2" s="33"/>
-      <c r="H2" s="33"/>
-      <c r="I2" s="34" t="s">
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
+      <c r="H2" s="36"/>
+      <c r="I2" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="J2" s="34"/>
-      <c r="K2" s="34"/>
-      <c r="L2" s="34"/>
-      <c r="M2" s="34" t="s">
+      <c r="J2" s="37"/>
+      <c r="K2" s="37"/>
+      <c r="L2" s="37"/>
+      <c r="M2" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="N2" s="34"/>
-      <c r="O2" s="34"/>
-      <c r="P2" s="34"/>
+      <c r="N2" s="37"/>
+      <c r="O2" s="37"/>
+      <c r="P2" s="37"/>
     </row>
     <row r="3" spans="1:16" s="5" customFormat="1" ht="227.25" customHeight="1">
       <c r="A3" s="7">
@@ -1524,24 +1531,24 @@
       <c r="D3" s="21" t="s">
         <v>105</v>
       </c>
-      <c r="E3" s="35" t="s">
+      <c r="E3" s="32" t="s">
         <v>102</v>
       </c>
-      <c r="F3" s="35"/>
-      <c r="G3" s="35"/>
-      <c r="H3" s="35"/>
-      <c r="I3" s="35" t="s">
+      <c r="F3" s="32"/>
+      <c r="G3" s="32"/>
+      <c r="H3" s="32"/>
+      <c r="I3" s="32" t="s">
         <v>61</v>
       </c>
-      <c r="J3" s="36"/>
-      <c r="K3" s="36"/>
-      <c r="L3" s="36"/>
-      <c r="M3" s="35" t="s">
+      <c r="J3" s="33"/>
+      <c r="K3" s="33"/>
+      <c r="L3" s="33"/>
+      <c r="M3" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="N3" s="36"/>
-      <c r="O3" s="36"/>
-      <c r="P3" s="36"/>
+      <c r="N3" s="33"/>
+      <c r="O3" s="33"/>
+      <c r="P3" s="33"/>
     </row>
     <row r="4" spans="1:16" s="5" customFormat="1" ht="175.5" customHeight="1">
       <c r="A4" s="7">
@@ -1556,24 +1563,24 @@
       <c r="D4" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="E4" s="35" t="s">
+      <c r="E4" s="32" t="s">
         <v>106</v>
       </c>
-      <c r="F4" s="35"/>
-      <c r="G4" s="35"/>
-      <c r="H4" s="35"/>
-      <c r="I4" s="35" t="s">
+      <c r="F4" s="32"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="32"/>
+      <c r="I4" s="32" t="s">
         <v>63</v>
       </c>
-      <c r="J4" s="36"/>
-      <c r="K4" s="36"/>
-      <c r="L4" s="36"/>
-      <c r="M4" s="35" t="s">
+      <c r="J4" s="33"/>
+      <c r="K4" s="33"/>
+      <c r="L4" s="33"/>
+      <c r="M4" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="N4" s="36"/>
-      <c r="O4" s="36"/>
-      <c r="P4" s="36"/>
+      <c r="N4" s="33"/>
+      <c r="O4" s="33"/>
+      <c r="P4" s="33"/>
     </row>
     <row r="5" spans="1:16" s="5" customFormat="1" ht="184.5" customHeight="1">
       <c r="A5" s="7">
@@ -1588,24 +1595,24 @@
       <c r="D5" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="E5" s="35" t="s">
+      <c r="E5" s="32" t="s">
         <v>68</v>
       </c>
-      <c r="F5" s="35"/>
-      <c r="G5" s="35"/>
-      <c r="H5" s="35"/>
-      <c r="I5" s="35" t="s">
+      <c r="F5" s="32"/>
+      <c r="G5" s="32"/>
+      <c r="H5" s="32"/>
+      <c r="I5" s="32" t="s">
         <v>107</v>
       </c>
-      <c r="J5" s="36"/>
-      <c r="K5" s="36"/>
-      <c r="L5" s="36"/>
-      <c r="M5" s="35" t="s">
+      <c r="J5" s="33"/>
+      <c r="K5" s="33"/>
+      <c r="L5" s="33"/>
+      <c r="M5" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="N5" s="36"/>
-      <c r="O5" s="36"/>
-      <c r="P5" s="36"/>
+      <c r="N5" s="33"/>
+      <c r="O5" s="33"/>
+      <c r="P5" s="33"/>
     </row>
     <row r="6" spans="1:16" s="5" customFormat="1" ht="186" customHeight="1">
       <c r="A6" s="7">
@@ -1620,32 +1627,32 @@
       <c r="D6" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="E6" s="35" t="s">
+      <c r="E6" s="32" t="s">
         <v>69</v>
       </c>
-      <c r="F6" s="35"/>
-      <c r="G6" s="35"/>
-      <c r="H6" s="35"/>
-      <c r="I6" s="35" t="s">
+      <c r="F6" s="32"/>
+      <c r="G6" s="32"/>
+      <c r="H6" s="32"/>
+      <c r="I6" s="32" t="s">
         <v>62</v>
       </c>
-      <c r="J6" s="36"/>
-      <c r="K6" s="36"/>
-      <c r="L6" s="36"/>
-      <c r="M6" s="35" t="s">
+      <c r="J6" s="33"/>
+      <c r="K6" s="33"/>
+      <c r="L6" s="33"/>
+      <c r="M6" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="N6" s="36"/>
-      <c r="O6" s="36"/>
-      <c r="P6" s="36"/>
+      <c r="N6" s="33"/>
+      <c r="O6" s="33"/>
+      <c r="P6" s="33"/>
     </row>
     <row r="7" spans="1:16" ht="146.25" customHeight="1">
       <c r="A7" s="8"/>
       <c r="B7" s="9"/>
       <c r="C7" s="9"/>
       <c r="D7" s="11"/>
-      <c r="K7" s="37"/>
-      <c r="L7" s="37"/>
+      <c r="K7" s="34"/>
+      <c r="L7" s="34"/>
       <c r="M7" s="4"/>
       <c r="N7" s="4"/>
       <c r="O7" s="4"/>
@@ -1656,8 +1663,8 @@
       <c r="B8" s="9"/>
       <c r="C8" s="9"/>
       <c r="D8" s="11"/>
-      <c r="K8" s="37"/>
-      <c r="L8" s="37"/>
+      <c r="K8" s="34"/>
+      <c r="L8" s="34"/>
       <c r="M8" s="4"/>
       <c r="N8" s="4"/>
       <c r="O8" s="4"/>
@@ -1689,17 +1696,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="M6:P6"/>
-    <mergeCell ref="E5:H5"/>
-    <mergeCell ref="I5:L5"/>
-    <mergeCell ref="M5:P5"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="K8:L8"/>
-    <mergeCell ref="E6:H6"/>
-    <mergeCell ref="I6:L6"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="E2:H2"/>
-    <mergeCell ref="I2:L2"/>
     <mergeCell ref="M2:P2"/>
     <mergeCell ref="E4:H4"/>
     <mergeCell ref="I4:L4"/>
@@ -1707,6 +1703,17 @@
     <mergeCell ref="E3:H3"/>
     <mergeCell ref="I3:L3"/>
     <mergeCell ref="M3:P3"/>
+    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="E6:H6"/>
+    <mergeCell ref="I6:L6"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="E2:H2"/>
+    <mergeCell ref="I2:L2"/>
+    <mergeCell ref="M6:P6"/>
+    <mergeCell ref="E5:H5"/>
+    <mergeCell ref="I5:L5"/>
+    <mergeCell ref="M5:P5"/>
+    <mergeCell ref="K7:L7"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1714,7 +1721,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1730,11 +1737,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="18.75" customHeight="1">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="35" t="s">
         <v>65</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
     </row>
     <row r="2" spans="1:4" s="3" customFormat="1" ht="18" customHeight="1">
       <c r="A2" s="2" t="s">
@@ -1826,11 +1833,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S84"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12:S12"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
+      <selection activeCell="T24" sqref="T24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>
@@ -1858,449 +1865,449 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="33" customHeight="1">
-      <c r="A1" s="59" t="s">
+      <c r="A1" s="50" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
-      <c r="F1" s="60"/>
-      <c r="G1" s="60"/>
-      <c r="H1" s="60"/>
-      <c r="I1" s="60"/>
-      <c r="J1" s="60"/>
-      <c r="K1" s="60"/>
-      <c r="L1" s="60"/>
-      <c r="M1" s="60"/>
-      <c r="N1" s="60"/>
-      <c r="O1" s="60"/>
-      <c r="P1" s="60"/>
-      <c r="Q1" s="60"/>
-      <c r="R1" s="60"/>
-      <c r="S1" s="61"/>
+      <c r="B1" s="51"/>
+      <c r="C1" s="51"/>
+      <c r="D1" s="51"/>
+      <c r="E1" s="51"/>
+      <c r="F1" s="51"/>
+      <c r="G1" s="51"/>
+      <c r="H1" s="51"/>
+      <c r="I1" s="51"/>
+      <c r="J1" s="51"/>
+      <c r="K1" s="51"/>
+      <c r="L1" s="51"/>
+      <c r="M1" s="51"/>
+      <c r="N1" s="51"/>
+      <c r="O1" s="51"/>
+      <c r="P1" s="51"/>
+      <c r="Q1" s="51"/>
+      <c r="R1" s="51"/>
+      <c r="S1" s="52"/>
     </row>
     <row r="2" spans="1:19" s="16" customFormat="1" ht="18" customHeight="1">
-      <c r="A2" s="43" t="s">
+      <c r="A2" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="43"/>
-      <c r="C2" s="38" t="s">
+      <c r="B2" s="39"/>
+      <c r="C2" s="43" t="s">
         <v>112</v>
       </c>
-      <c r="D2" s="39"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="43" t="s">
+      <c r="D2" s="45"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="43"/>
-      <c r="H2" s="38" t="s">
+      <c r="G2" s="39"/>
+      <c r="H2" s="43" t="s">
         <v>111</v>
       </c>
-      <c r="I2" s="39"/>
-      <c r="J2" s="40"/>
-      <c r="K2" s="43" t="s">
+      <c r="I2" s="45"/>
+      <c r="J2" s="44"/>
+      <c r="K2" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="L2" s="43"/>
-      <c r="M2" s="38" t="s">
+      <c r="L2" s="39"/>
+      <c r="M2" s="43" t="s">
         <v>98</v>
       </c>
-      <c r="N2" s="39"/>
-      <c r="O2" s="40"/>
-      <c r="P2" s="43" t="s">
+      <c r="N2" s="45"/>
+      <c r="O2" s="44"/>
+      <c r="P2" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="Q2" s="43"/>
-      <c r="R2" s="55">
-        <v>40855</v>
-      </c>
-      <c r="S2" s="40"/>
+      <c r="Q2" s="39"/>
+      <c r="R2" s="49">
+        <v>40851</v>
+      </c>
+      <c r="S2" s="44"/>
     </row>
     <row r="3" spans="1:19" s="16" customFormat="1" ht="18" customHeight="1">
-      <c r="A3" s="56" t="s">
+      <c r="A3" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="57"/>
-      <c r="C3" s="57"/>
-      <c r="D3" s="57"/>
-      <c r="E3" s="57"/>
-      <c r="F3" s="57"/>
-      <c r="G3" s="57"/>
-      <c r="H3" s="57"/>
-      <c r="I3" s="57"/>
-      <c r="J3" s="57"/>
-      <c r="K3" s="57"/>
-      <c r="L3" s="57"/>
-      <c r="M3" s="57"/>
-      <c r="N3" s="57"/>
-      <c r="O3" s="57"/>
-      <c r="P3" s="57"/>
-      <c r="Q3" s="57"/>
-      <c r="R3" s="57"/>
-      <c r="S3" s="58"/>
+      <c r="B3" s="41"/>
+      <c r="C3" s="41"/>
+      <c r="D3" s="41"/>
+      <c r="E3" s="41"/>
+      <c r="F3" s="41"/>
+      <c r="G3" s="41"/>
+      <c r="H3" s="41"/>
+      <c r="I3" s="41"/>
+      <c r="J3" s="41"/>
+      <c r="K3" s="41"/>
+      <c r="L3" s="41"/>
+      <c r="M3" s="41"/>
+      <c r="N3" s="41"/>
+      <c r="O3" s="41"/>
+      <c r="P3" s="41"/>
+      <c r="Q3" s="41"/>
+      <c r="R3" s="41"/>
+      <c r="S3" s="42"/>
     </row>
     <row r="4" spans="1:19" s="16" customFormat="1" ht="18" customHeight="1">
-      <c r="A4" s="43" t="s">
+      <c r="A4" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="43"/>
-      <c r="C4" s="38" t="s">
+      <c r="B4" s="39"/>
+      <c r="C4" s="43" t="s">
         <v>99</v>
       </c>
-      <c r="D4" s="39"/>
-      <c r="E4" s="40"/>
-      <c r="F4" s="43" t="s">
+      <c r="D4" s="45"/>
+      <c r="E4" s="44"/>
+      <c r="F4" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="G4" s="43"/>
-      <c r="H4" s="38" t="s">
+      <c r="G4" s="39"/>
+      <c r="H4" s="43" t="s">
         <v>97</v>
       </c>
-      <c r="I4" s="39"/>
-      <c r="J4" s="40"/>
-      <c r="K4" s="43" t="s">
+      <c r="I4" s="45"/>
+      <c r="J4" s="44"/>
+      <c r="K4" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="L4" s="43"/>
-      <c r="M4" s="38" t="s">
+      <c r="L4" s="39"/>
+      <c r="M4" s="43" t="s">
         <v>100</v>
       </c>
-      <c r="N4" s="39"/>
-      <c r="O4" s="40"/>
-      <c r="P4" s="43" t="s">
+      <c r="N4" s="45"/>
+      <c r="O4" s="44"/>
+      <c r="P4" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="Q4" s="43"/>
-      <c r="R4" s="55">
+      <c r="Q4" s="39"/>
+      <c r="R4" s="49">
         <v>39600</v>
       </c>
-      <c r="S4" s="40"/>
+      <c r="S4" s="44"/>
     </row>
     <row r="5" spans="1:19" s="16" customFormat="1" ht="18" customHeight="1">
       <c r="A5" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="65" t="s">
+      <c r="B5" s="46" t="s">
         <v>101</v>
       </c>
-      <c r="C5" s="66"/>
-      <c r="D5" s="66"/>
-      <c r="E5" s="66"/>
-      <c r="F5" s="66"/>
-      <c r="G5" s="66"/>
-      <c r="H5" s="66"/>
-      <c r="I5" s="66"/>
-      <c r="J5" s="66"/>
-      <c r="K5" s="66"/>
-      <c r="L5" s="66"/>
-      <c r="M5" s="66"/>
-      <c r="N5" s="66"/>
-      <c r="O5" s="66"/>
-      <c r="P5" s="66"/>
-      <c r="Q5" s="66"/>
-      <c r="R5" s="66"/>
-      <c r="S5" s="67"/>
+      <c r="C5" s="47"/>
+      <c r="D5" s="47"/>
+      <c r="E5" s="47"/>
+      <c r="F5" s="47"/>
+      <c r="G5" s="47"/>
+      <c r="H5" s="47"/>
+      <c r="I5" s="47"/>
+      <c r="J5" s="47"/>
+      <c r="K5" s="47"/>
+      <c r="L5" s="47"/>
+      <c r="M5" s="47"/>
+      <c r="N5" s="47"/>
+      <c r="O5" s="47"/>
+      <c r="P5" s="47"/>
+      <c r="Q5" s="47"/>
+      <c r="R5" s="47"/>
+      <c r="S5" s="48"/>
     </row>
     <row r="6" spans="1:19" s="16" customFormat="1" ht="27">
       <c r="A6" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="B6" s="43"/>
-      <c r="C6" s="43"/>
-      <c r="D6" s="43"/>
-      <c r="E6" s="43"/>
-      <c r="F6" s="43"/>
-      <c r="G6" s="43"/>
-      <c r="H6" s="43"/>
-      <c r="I6" s="43"/>
-      <c r="J6" s="43"/>
-      <c r="K6" s="43"/>
-      <c r="L6" s="43"/>
-      <c r="M6" s="43"/>
-      <c r="N6" s="43"/>
-      <c r="O6" s="43"/>
-      <c r="P6" s="43"/>
-      <c r="Q6" s="43"/>
-      <c r="R6" s="43"/>
-      <c r="S6" s="43"/>
+      <c r="B6" s="39"/>
+      <c r="C6" s="39"/>
+      <c r="D6" s="39"/>
+      <c r="E6" s="39"/>
+      <c r="F6" s="39"/>
+      <c r="G6" s="39"/>
+      <c r="H6" s="39"/>
+      <c r="I6" s="39"/>
+      <c r="J6" s="39"/>
+      <c r="K6" s="39"/>
+      <c r="L6" s="39"/>
+      <c r="M6" s="39"/>
+      <c r="N6" s="39"/>
+      <c r="O6" s="39"/>
+      <c r="P6" s="39"/>
+      <c r="Q6" s="39"/>
+      <c r="R6" s="39"/>
+      <c r="S6" s="39"/>
     </row>
     <row r="7" spans="1:19" s="16" customFormat="1" ht="18" customHeight="1">
-      <c r="A7" s="56" t="s">
+      <c r="A7" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="B7" s="57"/>
-      <c r="C7" s="57"/>
-      <c r="D7" s="57"/>
-      <c r="E7" s="57"/>
-      <c r="F7" s="57"/>
-      <c r="G7" s="57"/>
-      <c r="H7" s="57"/>
-      <c r="I7" s="57"/>
-      <c r="J7" s="57"/>
-      <c r="K7" s="57"/>
-      <c r="L7" s="57"/>
-      <c r="M7" s="57"/>
-      <c r="N7" s="57"/>
-      <c r="O7" s="57"/>
-      <c r="P7" s="57"/>
-      <c r="Q7" s="57"/>
-      <c r="R7" s="57"/>
-      <c r="S7" s="58"/>
+      <c r="B7" s="41"/>
+      <c r="C7" s="41"/>
+      <c r="D7" s="41"/>
+      <c r="E7" s="41"/>
+      <c r="F7" s="41"/>
+      <c r="G7" s="41"/>
+      <c r="H7" s="41"/>
+      <c r="I7" s="41"/>
+      <c r="J7" s="41"/>
+      <c r="K7" s="41"/>
+      <c r="L7" s="41"/>
+      <c r="M7" s="41"/>
+      <c r="N7" s="41"/>
+      <c r="O7" s="41"/>
+      <c r="P7" s="41"/>
+      <c r="Q7" s="41"/>
+      <c r="R7" s="41"/>
+      <c r="S7" s="42"/>
     </row>
     <row r="8" spans="1:19" s="16" customFormat="1" ht="18" customHeight="1">
-      <c r="A8" s="43" t="s">
+      <c r="A8" s="39" t="s">
         <v>25</v>
       </c>
-      <c r="B8" s="43"/>
-      <c r="C8" s="43"/>
-      <c r="D8" s="43" t="s">
+      <c r="B8" s="39"/>
+      <c r="C8" s="39"/>
+      <c r="D8" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="E8" s="43"/>
-      <c r="F8" s="43"/>
-      <c r="G8" s="43"/>
-      <c r="H8" s="43"/>
-      <c r="I8" s="43" t="s">
+      <c r="E8" s="39"/>
+      <c r="F8" s="39"/>
+      <c r="G8" s="39"/>
+      <c r="H8" s="39"/>
+      <c r="I8" s="39" t="s">
         <v>27</v>
       </c>
-      <c r="J8" s="43"/>
-      <c r="K8" s="43"/>
-      <c r="L8" s="43" t="s">
+      <c r="J8" s="39"/>
+      <c r="K8" s="39"/>
+      <c r="L8" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="M8" s="43"/>
-      <c r="N8" s="43"/>
-      <c r="O8" s="43" t="s">
+      <c r="M8" s="39"/>
+      <c r="N8" s="39"/>
+      <c r="O8" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="P8" s="43"/>
-      <c r="Q8" s="43"/>
-      <c r="R8" s="43" t="s">
+      <c r="P8" s="39"/>
+      <c r="Q8" s="39"/>
+      <c r="R8" s="39" t="s">
         <v>30</v>
       </c>
-      <c r="S8" s="43"/>
+      <c r="S8" s="39"/>
     </row>
     <row r="9" spans="1:19" s="16" customFormat="1" ht="18" customHeight="1">
-      <c r="A9" s="64">
+      <c r="A9" s="38">
         <v>39600</v>
       </c>
-      <c r="B9" s="43"/>
-      <c r="C9" s="43"/>
-      <c r="D9" s="43" t="s">
+      <c r="B9" s="39"/>
+      <c r="C9" s="39"/>
+      <c r="D9" s="39" t="s">
+        <v>122</v>
+      </c>
+      <c r="E9" s="39"/>
+      <c r="F9" s="39"/>
+      <c r="G9" s="39"/>
+      <c r="H9" s="39"/>
+      <c r="I9" s="39" t="s">
+        <v>124</v>
+      </c>
+      <c r="J9" s="39"/>
+      <c r="K9" s="39"/>
+      <c r="L9" s="39" t="s">
         <v>123</v>
       </c>
-      <c r="E9" s="43"/>
-      <c r="F9" s="43"/>
-      <c r="G9" s="43"/>
-      <c r="H9" s="43"/>
-      <c r="I9" s="43" t="s">
-        <v>125</v>
-      </c>
-      <c r="J9" s="43"/>
-      <c r="K9" s="43"/>
-      <c r="L9" s="43" t="s">
-        <v>124</v>
-      </c>
-      <c r="M9" s="43"/>
-      <c r="N9" s="43"/>
-      <c r="O9" s="43"/>
-      <c r="P9" s="43"/>
-      <c r="Q9" s="43"/>
-      <c r="R9" s="43">
+      <c r="M9" s="39"/>
+      <c r="N9" s="39"/>
+      <c r="O9" s="39"/>
+      <c r="P9" s="39"/>
+      <c r="Q9" s="39"/>
+      <c r="R9" s="39">
         <v>3</v>
       </c>
-      <c r="S9" s="43"/>
+      <c r="S9" s="39"/>
     </row>
     <row r="10" spans="1:19" s="16" customFormat="1" ht="18" customHeight="1">
-      <c r="A10" s="64">
+      <c r="A10" s="38">
         <v>39692</v>
       </c>
-      <c r="B10" s="43"/>
-      <c r="C10" s="43"/>
-      <c r="D10" s="43" t="s">
+      <c r="B10" s="39"/>
+      <c r="C10" s="39"/>
+      <c r="D10" s="39" t="s">
         <v>113</v>
       </c>
-      <c r="E10" s="43"/>
-      <c r="F10" s="43"/>
-      <c r="G10" s="43"/>
-      <c r="H10" s="43"/>
-      <c r="I10" s="43" t="s">
+      <c r="E10" s="39"/>
+      <c r="F10" s="39"/>
+      <c r="G10" s="39"/>
+      <c r="H10" s="39"/>
+      <c r="I10" s="39" t="s">
         <v>114</v>
       </c>
-      <c r="J10" s="43"/>
-      <c r="K10" s="43"/>
-      <c r="L10" s="43" t="s">
+      <c r="J10" s="39"/>
+      <c r="K10" s="39"/>
+      <c r="L10" s="39" t="s">
         <v>115</v>
       </c>
-      <c r="M10" s="43"/>
-      <c r="N10" s="43"/>
-      <c r="O10" s="43"/>
-      <c r="P10" s="43"/>
-      <c r="Q10" s="43"/>
-      <c r="R10" s="43">
+      <c r="M10" s="39"/>
+      <c r="N10" s="39"/>
+      <c r="O10" s="39"/>
+      <c r="P10" s="39"/>
+      <c r="Q10" s="39"/>
+      <c r="R10" s="39">
         <v>24</v>
       </c>
-      <c r="S10" s="43"/>
+      <c r="S10" s="39"/>
     </row>
     <row r="11" spans="1:19" s="16" customFormat="1" ht="18" customHeight="1">
-      <c r="A11" s="43"/>
-      <c r="B11" s="43"/>
-      <c r="C11" s="43"/>
-      <c r="D11" s="43"/>
-      <c r="E11" s="43"/>
-      <c r="F11" s="43"/>
-      <c r="G11" s="43"/>
-      <c r="H11" s="43"/>
-      <c r="I11" s="43"/>
-      <c r="J11" s="43"/>
-      <c r="K11" s="43"/>
-      <c r="L11" s="43"/>
-      <c r="M11" s="43"/>
-      <c r="N11" s="43"/>
-      <c r="O11" s="43" t="s">
+      <c r="A11" s="39"/>
+      <c r="B11" s="39"/>
+      <c r="C11" s="39"/>
+      <c r="D11" s="39"/>
+      <c r="E11" s="39"/>
+      <c r="F11" s="39"/>
+      <c r="G11" s="39"/>
+      <c r="H11" s="39"/>
+      <c r="I11" s="39"/>
+      <c r="J11" s="39"/>
+      <c r="K11" s="39"/>
+      <c r="L11" s="39"/>
+      <c r="M11" s="39"/>
+      <c r="N11" s="39"/>
+      <c r="O11" s="39" t="s">
         <v>31</v>
       </c>
-      <c r="P11" s="43"/>
-      <c r="Q11" s="43"/>
-      <c r="R11" s="43"/>
-      <c r="S11" s="43"/>
+      <c r="P11" s="39"/>
+      <c r="Q11" s="39"/>
+      <c r="R11" s="39"/>
+      <c r="S11" s="39"/>
     </row>
     <row r="12" spans="1:19" s="16" customFormat="1" ht="27">
       <c r="A12" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="B12" s="43"/>
-      <c r="C12" s="43"/>
-      <c r="D12" s="43"/>
-      <c r="E12" s="43"/>
-      <c r="F12" s="43"/>
-      <c r="G12" s="43"/>
-      <c r="H12" s="43"/>
-      <c r="I12" s="43"/>
-      <c r="J12" s="43"/>
-      <c r="K12" s="43"/>
-      <c r="L12" s="43"/>
-      <c r="M12" s="43"/>
-      <c r="N12" s="43"/>
-      <c r="O12" s="43"/>
-      <c r="P12" s="43"/>
-      <c r="Q12" s="43"/>
-      <c r="R12" s="43"/>
-      <c r="S12" s="43"/>
+      <c r="B12" s="39"/>
+      <c r="C12" s="39"/>
+      <c r="D12" s="39"/>
+      <c r="E12" s="39"/>
+      <c r="F12" s="39"/>
+      <c r="G12" s="39"/>
+      <c r="H12" s="39"/>
+      <c r="I12" s="39"/>
+      <c r="J12" s="39"/>
+      <c r="K12" s="39"/>
+      <c r="L12" s="39"/>
+      <c r="M12" s="39"/>
+      <c r="N12" s="39"/>
+      <c r="O12" s="39"/>
+      <c r="P12" s="39"/>
+      <c r="Q12" s="39"/>
+      <c r="R12" s="39"/>
+      <c r="S12" s="39"/>
     </row>
     <row r="13" spans="1:19" s="16" customFormat="1" ht="18" customHeight="1">
-      <c r="A13" s="56" t="s">
+      <c r="A13" s="40" t="s">
         <v>32</v>
       </c>
-      <c r="B13" s="57"/>
-      <c r="C13" s="57"/>
-      <c r="D13" s="57"/>
-      <c r="E13" s="57"/>
-      <c r="F13" s="57"/>
-      <c r="G13" s="57"/>
-      <c r="H13" s="57"/>
-      <c r="I13" s="57"/>
-      <c r="J13" s="57"/>
-      <c r="K13" s="57"/>
-      <c r="L13" s="57"/>
-      <c r="M13" s="57"/>
-      <c r="N13" s="57"/>
-      <c r="O13" s="57"/>
-      <c r="P13" s="57"/>
-      <c r="Q13" s="57"/>
-      <c r="R13" s="57"/>
-      <c r="S13" s="58"/>
+      <c r="B13" s="41"/>
+      <c r="C13" s="41"/>
+      <c r="D13" s="41"/>
+      <c r="E13" s="41"/>
+      <c r="F13" s="41"/>
+      <c r="G13" s="41"/>
+      <c r="H13" s="41"/>
+      <c r="I13" s="41"/>
+      <c r="J13" s="41"/>
+      <c r="K13" s="41"/>
+      <c r="L13" s="41"/>
+      <c r="M13" s="41"/>
+      <c r="N13" s="41"/>
+      <c r="O13" s="41"/>
+      <c r="P13" s="41"/>
+      <c r="Q13" s="41"/>
+      <c r="R13" s="41"/>
+      <c r="S13" s="42"/>
     </row>
     <row r="14" spans="1:19" s="16" customFormat="1" ht="18" customHeight="1">
-      <c r="A14" s="43" t="s">
+      <c r="A14" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="B14" s="43" t="s">
+      <c r="B14" s="39" t="s">
         <v>34</v>
       </c>
-      <c r="C14" s="43"/>
-      <c r="D14" s="43"/>
-      <c r="E14" s="43"/>
-      <c r="F14" s="43"/>
-      <c r="G14" s="43"/>
-      <c r="H14" s="43"/>
-      <c r="I14" s="43"/>
-      <c r="J14" s="43"/>
-      <c r="K14" s="43"/>
-      <c r="L14" s="43"/>
-      <c r="M14" s="43"/>
-      <c r="N14" s="43"/>
-      <c r="O14" s="43"/>
-      <c r="P14" s="43"/>
-      <c r="Q14" s="43"/>
-      <c r="R14" s="43"/>
-      <c r="S14" s="43"/>
+      <c r="C14" s="39"/>
+      <c r="D14" s="39"/>
+      <c r="E14" s="39"/>
+      <c r="F14" s="39"/>
+      <c r="G14" s="39"/>
+      <c r="H14" s="39"/>
+      <c r="I14" s="39"/>
+      <c r="J14" s="39"/>
+      <c r="K14" s="39"/>
+      <c r="L14" s="39"/>
+      <c r="M14" s="39"/>
+      <c r="N14" s="39"/>
+      <c r="O14" s="39"/>
+      <c r="P14" s="39"/>
+      <c r="Q14" s="39"/>
+      <c r="R14" s="39"/>
+      <c r="S14" s="39"/>
     </row>
     <row r="15" spans="1:19" s="16" customFormat="1" ht="18" customHeight="1">
-      <c r="A15" s="43"/>
-      <c r="B15" s="38" t="s">
+      <c r="A15" s="39"/>
+      <c r="B15" s="43" t="s">
         <v>87</v>
       </c>
-      <c r="C15" s="39"/>
-      <c r="D15" s="39"/>
-      <c r="E15" s="39"/>
-      <c r="F15" s="39"/>
-      <c r="G15" s="39"/>
-      <c r="H15" s="39"/>
-      <c r="I15" s="39"/>
-      <c r="J15" s="39"/>
-      <c r="K15" s="40"/>
-      <c r="L15" s="38" t="s">
+      <c r="C15" s="45"/>
+      <c r="D15" s="45"/>
+      <c r="E15" s="45"/>
+      <c r="F15" s="45"/>
+      <c r="G15" s="45"/>
+      <c r="H15" s="45"/>
+      <c r="I15" s="45"/>
+      <c r="J15" s="45"/>
+      <c r="K15" s="44"/>
+      <c r="L15" s="43" t="s">
         <v>88</v>
       </c>
-      <c r="M15" s="39"/>
-      <c r="N15" s="39"/>
-      <c r="O15" s="39"/>
-      <c r="P15" s="39"/>
-      <c r="Q15" s="40"/>
+      <c r="M15" s="45"/>
+      <c r="N15" s="45"/>
+      <c r="O15" s="45"/>
+      <c r="P15" s="45"/>
+      <c r="Q15" s="44"/>
       <c r="R15" s="18"/>
       <c r="S15" s="19"/>
     </row>
     <row r="16" spans="1:19" s="16" customFormat="1" ht="18" customHeight="1">
-      <c r="A16" s="43"/>
-      <c r="B16" s="38" t="s">
+      <c r="A16" s="39"/>
+      <c r="B16" s="43" t="s">
         <v>35</v>
       </c>
-      <c r="C16" s="40"/>
-      <c r="D16" s="38" t="s">
+      <c r="C16" s="44"/>
+      <c r="D16" s="43" t="s">
         <v>36</v>
       </c>
-      <c r="E16" s="40"/>
-      <c r="F16" s="38" t="s">
+      <c r="E16" s="44"/>
+      <c r="F16" s="43" t="s">
         <v>37</v>
       </c>
-      <c r="G16" s="40"/>
-      <c r="H16" s="38" t="s">
+      <c r="G16" s="44"/>
+      <c r="H16" s="43" t="s">
         <v>38</v>
       </c>
-      <c r="I16" s="40"/>
-      <c r="J16" s="38" t="s">
+      <c r="I16" s="44"/>
+      <c r="J16" s="43" t="s">
         <v>39</v>
       </c>
-      <c r="K16" s="40"/>
-      <c r="L16" s="38" t="s">
+      <c r="K16" s="44"/>
+      <c r="L16" s="43" t="s">
         <v>92</v>
       </c>
-      <c r="M16" s="40"/>
-      <c r="N16" s="38" t="s">
+      <c r="M16" s="44"/>
+      <c r="N16" s="43" t="s">
         <v>93</v>
       </c>
-      <c r="O16" s="40"/>
-      <c r="P16" s="43" t="s">
+      <c r="O16" s="44"/>
+      <c r="P16" s="39" t="s">
         <v>94</v>
       </c>
-      <c r="Q16" s="43"/>
-      <c r="R16" s="51"/>
-      <c r="S16" s="51"/>
+      <c r="Q16" s="39"/>
+      <c r="R16" s="55"/>
+      <c r="S16" s="55"/>
     </row>
     <row r="17" spans="1:19" s="16" customFormat="1" ht="18" customHeight="1">
-      <c r="A17" s="43"/>
+      <c r="A17" s="39"/>
       <c r="B17" s="15" t="s">
         <v>40</v>
       </c>
@@ -2402,7 +2409,7 @@
         <v>3</v>
       </c>
       <c r="Q18" s="6" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="R18" s="20"/>
       <c r="S18" s="20"/>
@@ -2454,358 +2461,358 @@
       <c r="S20" s="20"/>
     </row>
     <row r="21" spans="1:19" s="16" customFormat="1" ht="18" customHeight="1">
-      <c r="A21" s="56" t="s">
+      <c r="A21" s="40" t="s">
         <v>95</v>
       </c>
-      <c r="B21" s="57"/>
-      <c r="C21" s="57"/>
-      <c r="D21" s="57"/>
-      <c r="E21" s="57"/>
-      <c r="F21" s="57"/>
-      <c r="G21" s="57"/>
-      <c r="H21" s="57"/>
-      <c r="I21" s="57"/>
-      <c r="J21" s="57"/>
-      <c r="K21" s="57"/>
-      <c r="L21" s="57"/>
-      <c r="M21" s="57"/>
-      <c r="N21" s="57"/>
-      <c r="O21" s="57"/>
-      <c r="P21" s="57"/>
-      <c r="Q21" s="57"/>
-      <c r="R21" s="62"/>
-      <c r="S21" s="63"/>
+      <c r="B21" s="41"/>
+      <c r="C21" s="41"/>
+      <c r="D21" s="41"/>
+      <c r="E21" s="41"/>
+      <c r="F21" s="41"/>
+      <c r="G21" s="41"/>
+      <c r="H21" s="41"/>
+      <c r="I21" s="41"/>
+      <c r="J21" s="41"/>
+      <c r="K21" s="41"/>
+      <c r="L21" s="41"/>
+      <c r="M21" s="41"/>
+      <c r="N21" s="41"/>
+      <c r="O21" s="41"/>
+      <c r="P21" s="41"/>
+      <c r="Q21" s="41"/>
+      <c r="R21" s="53"/>
+      <c r="S21" s="54"/>
     </row>
     <row r="22" spans="1:19" s="16" customFormat="1" ht="18" customHeight="1">
-      <c r="A22" s="43" t="s">
+      <c r="A22" s="39" t="s">
         <v>45</v>
       </c>
-      <c r="B22" s="43"/>
-      <c r="C22" s="43"/>
-      <c r="D22" s="43"/>
-      <c r="E22" s="43" t="s">
+      <c r="B22" s="39"/>
+      <c r="C22" s="39"/>
+      <c r="D22" s="39"/>
+      <c r="E22" s="39" t="s">
         <v>46</v>
       </c>
-      <c r="F22" s="43"/>
-      <c r="G22" s="43"/>
-      <c r="H22" s="43"/>
-      <c r="I22" s="43" t="s">
+      <c r="F22" s="39"/>
+      <c r="G22" s="39"/>
+      <c r="H22" s="39"/>
+      <c r="I22" s="39" t="s">
         <v>47</v>
       </c>
-      <c r="J22" s="43"/>
-      <c r="K22" s="43"/>
-      <c r="L22" s="43"/>
-      <c r="M22" s="38" t="s">
+      <c r="J22" s="39"/>
+      <c r="K22" s="39"/>
+      <c r="L22" s="39"/>
+      <c r="M22" s="43" t="s">
         <v>48</v>
       </c>
-      <c r="N22" s="39"/>
-      <c r="O22" s="39"/>
+      <c r="N22" s="45"/>
+      <c r="O22" s="45"/>
       <c r="P22" s="31"/>
-      <c r="Q22" s="43" t="s">
+      <c r="Q22" s="39" t="s">
         <v>49</v>
       </c>
-      <c r="R22" s="43"/>
-      <c r="S22" s="43"/>
+      <c r="R22" s="39"/>
+      <c r="S22" s="39"/>
     </row>
     <row r="23" spans="1:19" s="16" customFormat="1" ht="18" customHeight="1">
-      <c r="A23" s="43" t="s">
+      <c r="A23" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="B23" s="43"/>
-      <c r="C23" s="43"/>
-      <c r="D23" s="43"/>
-      <c r="E23" s="38"/>
-      <c r="F23" s="39"/>
-      <c r="G23" s="39"/>
-      <c r="H23" s="40"/>
-      <c r="I23" s="38"/>
-      <c r="J23" s="39"/>
-      <c r="K23" s="39"/>
-      <c r="L23" s="40"/>
+      <c r="B23" s="39"/>
+      <c r="C23" s="39"/>
+      <c r="D23" s="39"/>
+      <c r="E23" s="43"/>
+      <c r="F23" s="45"/>
+      <c r="G23" s="45"/>
+      <c r="H23" s="44"/>
+      <c r="I23" s="43"/>
+      <c r="J23" s="45"/>
+      <c r="K23" s="45"/>
+      <c r="L23" s="44"/>
       <c r="M23" s="22"/>
       <c r="N23" s="23"/>
       <c r="O23" s="23"/>
       <c r="P23" s="24"/>
-      <c r="Q23" s="43"/>
-      <c r="R23" s="43"/>
-      <c r="S23" s="43"/>
+      <c r="Q23" s="39"/>
+      <c r="R23" s="39"/>
+      <c r="S23" s="39"/>
     </row>
     <row r="24" spans="1:19" s="16" customFormat="1" ht="18" customHeight="1">
-      <c r="A24" s="43" t="s">
+      <c r="A24" s="39" t="s">
         <v>50</v>
       </c>
-      <c r="B24" s="43"/>
-      <c r="C24" s="43"/>
-      <c r="D24" s="43"/>
-      <c r="E24" s="38"/>
-      <c r="F24" s="39"/>
-      <c r="G24" s="39"/>
-      <c r="H24" s="40"/>
-      <c r="I24" s="38"/>
-      <c r="J24" s="39"/>
-      <c r="K24" s="39"/>
-      <c r="L24" s="40"/>
+      <c r="B24" s="39"/>
+      <c r="C24" s="39"/>
+      <c r="D24" s="39"/>
+      <c r="E24" s="43"/>
+      <c r="F24" s="45"/>
+      <c r="G24" s="45"/>
+      <c r="H24" s="44"/>
+      <c r="I24" s="43"/>
+      <c r="J24" s="45"/>
+      <c r="K24" s="45"/>
+      <c r="L24" s="44"/>
       <c r="M24" s="25"/>
       <c r="N24" s="26"/>
       <c r="O24" s="26"/>
       <c r="P24" s="27"/>
-      <c r="Q24" s="43"/>
-      <c r="R24" s="43"/>
-      <c r="S24" s="43"/>
+      <c r="Q24" s="39"/>
+      <c r="R24" s="39"/>
+      <c r="S24" s="39"/>
     </row>
     <row r="25" spans="1:19" s="16" customFormat="1" ht="18" customHeight="1">
-      <c r="A25" s="53" t="s">
+      <c r="A25" s="57" t="s">
         <v>51</v>
       </c>
-      <c r="B25" s="42" t="s">
+      <c r="B25" s="59" t="s">
         <v>52</v>
       </c>
-      <c r="C25" s="42"/>
-      <c r="D25" s="42"/>
-      <c r="E25" s="38"/>
-      <c r="F25" s="39"/>
-      <c r="G25" s="39"/>
-      <c r="H25" s="40"/>
-      <c r="I25" s="47"/>
-      <c r="J25" s="48"/>
-      <c r="K25" s="48"/>
-      <c r="L25" s="49"/>
+      <c r="C25" s="59"/>
+      <c r="D25" s="59"/>
+      <c r="E25" s="43"/>
+      <c r="F25" s="45"/>
+      <c r="G25" s="45"/>
+      <c r="H25" s="44"/>
+      <c r="I25" s="63"/>
+      <c r="J25" s="64"/>
+      <c r="K25" s="64"/>
+      <c r="L25" s="65"/>
       <c r="M25" s="25"/>
       <c r="N25" s="26"/>
       <c r="O25" s="26"/>
       <c r="P25" s="27"/>
-      <c r="Q25" s="43"/>
-      <c r="R25" s="43"/>
-      <c r="S25" s="43"/>
+      <c r="Q25" s="39"/>
+      <c r="R25" s="39"/>
+      <c r="S25" s="39"/>
     </row>
     <row r="26" spans="1:19" s="16" customFormat="1" ht="18" customHeight="1">
-      <c r="A26" s="54"/>
-      <c r="B26" s="42" t="s">
+      <c r="A26" s="58"/>
+      <c r="B26" s="59" t="s">
         <v>53</v>
       </c>
-      <c r="C26" s="42"/>
-      <c r="D26" s="42"/>
-      <c r="E26" s="38"/>
-      <c r="F26" s="39"/>
-      <c r="G26" s="39"/>
-      <c r="H26" s="40"/>
-      <c r="I26" s="50"/>
-      <c r="J26" s="51"/>
-      <c r="K26" s="51"/>
-      <c r="L26" s="52"/>
+      <c r="C26" s="59"/>
+      <c r="D26" s="59"/>
+      <c r="E26" s="43"/>
+      <c r="F26" s="45"/>
+      <c r="G26" s="45"/>
+      <c r="H26" s="44"/>
+      <c r="I26" s="66"/>
+      <c r="J26" s="55"/>
+      <c r="K26" s="55"/>
+      <c r="L26" s="67"/>
       <c r="M26" s="25"/>
       <c r="N26" s="26"/>
       <c r="O26" s="26"/>
       <c r="P26" s="27"/>
-      <c r="Q26" s="43"/>
-      <c r="R26" s="43"/>
-      <c r="S26" s="43"/>
+      <c r="Q26" s="39"/>
+      <c r="R26" s="39"/>
+      <c r="S26" s="39"/>
     </row>
     <row r="27" spans="1:19" s="16" customFormat="1" ht="18" customHeight="1">
-      <c r="A27" s="54"/>
-      <c r="B27" s="42" t="s">
+      <c r="A27" s="58"/>
+      <c r="B27" s="59" t="s">
         <v>54</v>
       </c>
-      <c r="C27" s="42"/>
-      <c r="D27" s="42"/>
-      <c r="E27" s="38"/>
-      <c r="F27" s="39"/>
-      <c r="G27" s="39"/>
-      <c r="H27" s="40"/>
-      <c r="I27" s="50"/>
-      <c r="J27" s="51"/>
-      <c r="K27" s="51"/>
-      <c r="L27" s="52"/>
+      <c r="C27" s="59"/>
+      <c r="D27" s="59"/>
+      <c r="E27" s="43"/>
+      <c r="F27" s="45"/>
+      <c r="G27" s="45"/>
+      <c r="H27" s="44"/>
+      <c r="I27" s="66"/>
+      <c r="J27" s="55"/>
+      <c r="K27" s="55"/>
+      <c r="L27" s="67"/>
       <c r="M27" s="25"/>
       <c r="N27" s="26"/>
       <c r="O27" s="26"/>
       <c r="P27" s="27"/>
-      <c r="Q27" s="43"/>
-      <c r="R27" s="43"/>
-      <c r="S27" s="43"/>
+      <c r="Q27" s="39"/>
+      <c r="R27" s="39"/>
+      <c r="S27" s="39"/>
     </row>
     <row r="28" spans="1:19" s="16" customFormat="1" ht="18" customHeight="1">
-      <c r="A28" s="54"/>
-      <c r="B28" s="42" t="s">
+      <c r="A28" s="58"/>
+      <c r="B28" s="59" t="s">
         <v>55</v>
       </c>
-      <c r="C28" s="42"/>
-      <c r="D28" s="42"/>
-      <c r="E28" s="38"/>
-      <c r="F28" s="39"/>
-      <c r="G28" s="39"/>
-      <c r="H28" s="40"/>
-      <c r="I28" s="50"/>
-      <c r="J28" s="51"/>
-      <c r="K28" s="51"/>
-      <c r="L28" s="52"/>
+      <c r="C28" s="59"/>
+      <c r="D28" s="59"/>
+      <c r="E28" s="43"/>
+      <c r="F28" s="45"/>
+      <c r="G28" s="45"/>
+      <c r="H28" s="44"/>
+      <c r="I28" s="66"/>
+      <c r="J28" s="55"/>
+      <c r="K28" s="55"/>
+      <c r="L28" s="67"/>
       <c r="M28" s="25"/>
       <c r="N28" s="26"/>
       <c r="O28" s="26"/>
       <c r="P28" s="27"/>
-      <c r="Q28" s="43"/>
-      <c r="R28" s="43"/>
-      <c r="S28" s="43"/>
+      <c r="Q28" s="39"/>
+      <c r="R28" s="39"/>
+      <c r="S28" s="39"/>
     </row>
     <row r="29" spans="1:19" s="16" customFormat="1" ht="18" customHeight="1">
-      <c r="A29" s="54"/>
-      <c r="B29" s="42" t="s">
+      <c r="A29" s="58"/>
+      <c r="B29" s="59" t="s">
         <v>56</v>
       </c>
-      <c r="C29" s="42"/>
-      <c r="D29" s="42"/>
-      <c r="E29" s="38"/>
-      <c r="F29" s="39"/>
-      <c r="G29" s="39"/>
-      <c r="H29" s="40"/>
-      <c r="I29" s="50"/>
-      <c r="J29" s="51"/>
-      <c r="K29" s="51"/>
-      <c r="L29" s="52"/>
+      <c r="C29" s="59"/>
+      <c r="D29" s="59"/>
+      <c r="E29" s="43"/>
+      <c r="F29" s="45"/>
+      <c r="G29" s="45"/>
+      <c r="H29" s="44"/>
+      <c r="I29" s="66"/>
+      <c r="J29" s="55"/>
+      <c r="K29" s="55"/>
+      <c r="L29" s="67"/>
       <c r="M29" s="25"/>
       <c r="N29" s="26"/>
       <c r="O29" s="26"/>
       <c r="P29" s="27"/>
-      <c r="Q29" s="43"/>
-      <c r="R29" s="43"/>
-      <c r="S29" s="43"/>
+      <c r="Q29" s="39"/>
+      <c r="R29" s="39"/>
+      <c r="S29" s="39"/>
     </row>
     <row r="30" spans="1:19" s="16" customFormat="1" ht="18" customHeight="1">
-      <c r="A30" s="54"/>
-      <c r="B30" s="42" t="s">
+      <c r="A30" s="58"/>
+      <c r="B30" s="59" t="s">
         <v>89</v>
       </c>
-      <c r="C30" s="42"/>
-      <c r="D30" s="42"/>
-      <c r="E30" s="38"/>
-      <c r="F30" s="39"/>
-      <c r="G30" s="39"/>
-      <c r="H30" s="40"/>
-      <c r="I30" s="50"/>
-      <c r="J30" s="51"/>
-      <c r="K30" s="51"/>
-      <c r="L30" s="52"/>
+      <c r="C30" s="59"/>
+      <c r="D30" s="59"/>
+      <c r="E30" s="43"/>
+      <c r="F30" s="45"/>
+      <c r="G30" s="45"/>
+      <c r="H30" s="44"/>
+      <c r="I30" s="66"/>
+      <c r="J30" s="55"/>
+      <c r="K30" s="55"/>
+      <c r="L30" s="67"/>
       <c r="M30" s="25"/>
       <c r="N30" s="26"/>
       <c r="O30" s="26"/>
       <c r="P30" s="27"/>
-      <c r="Q30" s="43"/>
-      <c r="R30" s="43"/>
-      <c r="S30" s="43"/>
+      <c r="Q30" s="39"/>
+      <c r="R30" s="39"/>
+      <c r="S30" s="39"/>
     </row>
     <row r="31" spans="1:19" s="16" customFormat="1" ht="18" customHeight="1">
-      <c r="A31" s="54"/>
-      <c r="B31" s="42" t="s">
+      <c r="A31" s="58"/>
+      <c r="B31" s="59" t="s">
         <v>90</v>
       </c>
-      <c r="C31" s="42"/>
-      <c r="D31" s="42"/>
-      <c r="E31" s="38"/>
-      <c r="F31" s="39"/>
-      <c r="G31" s="39"/>
-      <c r="H31" s="40"/>
-      <c r="I31" s="50"/>
-      <c r="J31" s="51"/>
-      <c r="K31" s="51"/>
-      <c r="L31" s="52"/>
+      <c r="C31" s="59"/>
+      <c r="D31" s="59"/>
+      <c r="E31" s="43"/>
+      <c r="F31" s="45"/>
+      <c r="G31" s="45"/>
+      <c r="H31" s="44"/>
+      <c r="I31" s="66"/>
+      <c r="J31" s="55"/>
+      <c r="K31" s="55"/>
+      <c r="L31" s="67"/>
       <c r="M31" s="25"/>
       <c r="N31" s="26"/>
       <c r="O31" s="26"/>
       <c r="P31" s="27"/>
-      <c r="Q31" s="43"/>
-      <c r="R31" s="43"/>
-      <c r="S31" s="43"/>
+      <c r="Q31" s="39"/>
+      <c r="R31" s="39"/>
+      <c r="S31" s="39"/>
     </row>
     <row r="32" spans="1:19" s="16" customFormat="1" ht="18" customHeight="1">
-      <c r="A32" s="54"/>
-      <c r="B32" s="42" t="s">
+      <c r="A32" s="58"/>
+      <c r="B32" s="59" t="s">
         <v>91</v>
       </c>
-      <c r="C32" s="42"/>
-      <c r="D32" s="42"/>
-      <c r="E32" s="38"/>
-      <c r="F32" s="39"/>
-      <c r="G32" s="39"/>
-      <c r="H32" s="40"/>
-      <c r="I32" s="50"/>
-      <c r="J32" s="51"/>
-      <c r="K32" s="51"/>
-      <c r="L32" s="52"/>
+      <c r="C32" s="59"/>
+      <c r="D32" s="59"/>
+      <c r="E32" s="43"/>
+      <c r="F32" s="45"/>
+      <c r="G32" s="45"/>
+      <c r="H32" s="44"/>
+      <c r="I32" s="66"/>
+      <c r="J32" s="55"/>
+      <c r="K32" s="55"/>
+      <c r="L32" s="67"/>
       <c r="M32" s="25"/>
       <c r="N32" s="26"/>
       <c r="O32" s="26"/>
       <c r="P32" s="27"/>
-      <c r="Q32" s="43"/>
-      <c r="R32" s="43"/>
-      <c r="S32" s="43"/>
+      <c r="Q32" s="39"/>
+      <c r="R32" s="39"/>
+      <c r="S32" s="39"/>
     </row>
     <row r="33" spans="1:19" s="16" customFormat="1" ht="18" customHeight="1">
-      <c r="A33" s="44" t="s">
+      <c r="A33" s="60" t="s">
         <v>57</v>
       </c>
-      <c r="B33" s="45"/>
-      <c r="C33" s="45"/>
-      <c r="D33" s="45"/>
-      <c r="E33" s="45"/>
-      <c r="F33" s="45"/>
-      <c r="G33" s="45"/>
-      <c r="H33" s="46"/>
-      <c r="I33" s="43"/>
-      <c r="J33" s="43"/>
-      <c r="K33" s="43"/>
-      <c r="L33" s="43"/>
+      <c r="B33" s="61"/>
+      <c r="C33" s="61"/>
+      <c r="D33" s="61"/>
+      <c r="E33" s="61"/>
+      <c r="F33" s="61"/>
+      <c r="G33" s="61"/>
+      <c r="H33" s="62"/>
+      <c r="I33" s="39"/>
+      <c r="J33" s="39"/>
+      <c r="K33" s="39"/>
+      <c r="L33" s="39"/>
       <c r="M33" s="28"/>
       <c r="N33" s="29"/>
       <c r="O33" s="29"/>
       <c r="P33" s="30"/>
-      <c r="Q33" s="43"/>
-      <c r="R33" s="43"/>
-      <c r="S33" s="43"/>
+      <c r="Q33" s="39"/>
+      <c r="R33" s="39"/>
+      <c r="S33" s="39"/>
     </row>
     <row r="34" spans="1:19" s="16" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A34" s="41" t="s">
+      <c r="A34" s="56" t="s">
         <v>58</v>
       </c>
-      <c r="B34" s="41"/>
-      <c r="C34" s="41"/>
-      <c r="D34" s="41"/>
-      <c r="E34" s="41"/>
-      <c r="F34" s="41"/>
-      <c r="G34" s="41"/>
-      <c r="H34" s="41"/>
-      <c r="I34" s="41"/>
-      <c r="J34" s="41"/>
-      <c r="K34" s="41"/>
+      <c r="B34" s="56"/>
+      <c r="C34" s="56"/>
+      <c r="D34" s="56"/>
+      <c r="E34" s="56"/>
+      <c r="F34" s="56"/>
+      <c r="G34" s="56"/>
+      <c r="H34" s="56"/>
+      <c r="I34" s="56"/>
+      <c r="J34" s="56"/>
+      <c r="K34" s="56"/>
     </row>
     <row r="35" spans="1:19" s="16" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A35" s="41" t="s">
+      <c r="A35" s="56" t="s">
         <v>59</v>
       </c>
-      <c r="B35" s="41"/>
-      <c r="C35" s="41"/>
-      <c r="D35" s="41"/>
-      <c r="E35" s="41"/>
-      <c r="F35" s="41"/>
-      <c r="G35" s="41"/>
-      <c r="H35" s="41"/>
-      <c r="I35" s="41"/>
-      <c r="J35" s="41"/>
-      <c r="K35" s="41"/>
+      <c r="B35" s="56"/>
+      <c r="C35" s="56"/>
+      <c r="D35" s="56"/>
+      <c r="E35" s="56"/>
+      <c r="F35" s="56"/>
+      <c r="G35" s="56"/>
+      <c r="H35" s="56"/>
+      <c r="I35" s="56"/>
+      <c r="J35" s="56"/>
+      <c r="K35" s="56"/>
     </row>
     <row r="36" spans="1:19" s="16" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A36" s="41" t="s">
+      <c r="A36" s="56" t="s">
         <v>60</v>
       </c>
-      <c r="B36" s="41"/>
-      <c r="C36" s="41"/>
-      <c r="D36" s="41"/>
-      <c r="E36" s="41"/>
-      <c r="F36" s="41"/>
-      <c r="G36" s="41"/>
-      <c r="H36" s="41"/>
-      <c r="I36" s="41"/>
-      <c r="J36" s="41"/>
-      <c r="K36" s="41"/>
+      <c r="B36" s="56"/>
+      <c r="C36" s="56"/>
+      <c r="D36" s="56"/>
+      <c r="E36" s="56"/>
+      <c r="F36" s="56"/>
+      <c r="G36" s="56"/>
+      <c r="H36" s="56"/>
+      <c r="I36" s="56"/>
+      <c r="J36" s="56"/>
+      <c r="K36" s="56"/>
     </row>
     <row r="37" spans="1:19" s="16" customFormat="1" ht="13.5"/>
     <row r="38" spans="1:19" s="16" customFormat="1" ht="13.5"/>
@@ -2857,43 +2864,48 @@
     <row r="84" s="16" customFormat="1" ht="13.5"/>
   </sheetData>
   <mergeCells count="96">
-    <mergeCell ref="A10:C10"/>
-    <mergeCell ref="B14:S14"/>
-    <mergeCell ref="B12:S12"/>
-    <mergeCell ref="R11:S11"/>
-    <mergeCell ref="A13:S13"/>
-    <mergeCell ref="O11:Q11"/>
-    <mergeCell ref="A14:A17"/>
-    <mergeCell ref="L10:N10"/>
-    <mergeCell ref="R10:S10"/>
-    <mergeCell ref="B6:S6"/>
-    <mergeCell ref="I11:K11"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="B15:K15"/>
-    <mergeCell ref="L15:Q15"/>
-    <mergeCell ref="D10:H10"/>
-    <mergeCell ref="I10:K10"/>
-    <mergeCell ref="A7:S7"/>
-    <mergeCell ref="I8:K8"/>
-    <mergeCell ref="D8:H8"/>
-    <mergeCell ref="M4:O4"/>
-    <mergeCell ref="D11:H11"/>
-    <mergeCell ref="L11:N11"/>
-    <mergeCell ref="A11:C11"/>
-    <mergeCell ref="B5:S5"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="O8:Q8"/>
-    <mergeCell ref="R8:S8"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="D9:H9"/>
-    <mergeCell ref="I9:K9"/>
-    <mergeCell ref="L9:N9"/>
-    <mergeCell ref="O9:Q9"/>
-    <mergeCell ref="R9:S9"/>
-    <mergeCell ref="L8:N8"/>
+    <mergeCell ref="I33:L33"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="E23:H23"/>
+    <mergeCell ref="E28:H28"/>
+    <mergeCell ref="A34:K34"/>
+    <mergeCell ref="E25:H25"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="I23:L23"/>
+    <mergeCell ref="I24:L24"/>
+    <mergeCell ref="A36:K36"/>
+    <mergeCell ref="A25:A32"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="E30:H30"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="E27:H27"/>
+    <mergeCell ref="A35:K35"/>
+    <mergeCell ref="E29:H29"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="A33:H33"/>
+    <mergeCell ref="E32:H32"/>
+    <mergeCell ref="I25:L32"/>
+    <mergeCell ref="E26:H26"/>
+    <mergeCell ref="E31:H31"/>
+    <mergeCell ref="A24:D24"/>
+    <mergeCell ref="R16:S16"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="N16:O16"/>
+    <mergeCell ref="E24:H24"/>
+    <mergeCell ref="P16:Q16"/>
+    <mergeCell ref="Q23:S33"/>
+    <mergeCell ref="H2:J2"/>
+    <mergeCell ref="H4:J4"/>
+    <mergeCell ref="A3:S3"/>
+    <mergeCell ref="R4:S4"/>
+    <mergeCell ref="P4:Q4"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="K4:L4"/>
     <mergeCell ref="A23:D23"/>
     <mergeCell ref="R2:S2"/>
     <mergeCell ref="A1:S1"/>
@@ -2910,49 +2922,44 @@
     <mergeCell ref="Q22:S22"/>
     <mergeCell ref="M22:O22"/>
     <mergeCell ref="C2:E2"/>
+    <mergeCell ref="M4:O4"/>
+    <mergeCell ref="D11:H11"/>
+    <mergeCell ref="L11:N11"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="B5:S5"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="O8:Q8"/>
+    <mergeCell ref="R8:S8"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="D9:H9"/>
+    <mergeCell ref="I9:K9"/>
+    <mergeCell ref="L9:N9"/>
+    <mergeCell ref="O9:Q9"/>
+    <mergeCell ref="R9:S9"/>
+    <mergeCell ref="L8:N8"/>
     <mergeCell ref="C4:E4"/>
-    <mergeCell ref="H2:J2"/>
-    <mergeCell ref="H4:J4"/>
-    <mergeCell ref="A3:S3"/>
-    <mergeCell ref="R4:S4"/>
-    <mergeCell ref="P4:Q4"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="A24:D24"/>
-    <mergeCell ref="R16:S16"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="L16:M16"/>
-    <mergeCell ref="N16:O16"/>
-    <mergeCell ref="A36:K36"/>
-    <mergeCell ref="A25:A32"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="E30:H30"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="E27:H27"/>
-    <mergeCell ref="A35:K35"/>
-    <mergeCell ref="E29:H29"/>
-    <mergeCell ref="E24:H24"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="A33:H33"/>
-    <mergeCell ref="E32:H32"/>
-    <mergeCell ref="I25:L32"/>
-    <mergeCell ref="E26:H26"/>
-    <mergeCell ref="E31:H31"/>
-    <mergeCell ref="I33:L33"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="E23:H23"/>
-    <mergeCell ref="E28:H28"/>
-    <mergeCell ref="A34:K34"/>
-    <mergeCell ref="E25:H25"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="P16:Q16"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="I23:L23"/>
-    <mergeCell ref="Q23:S33"/>
-    <mergeCell ref="I24:L24"/>
+    <mergeCell ref="B6:S6"/>
+    <mergeCell ref="I11:K11"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="B15:K15"/>
+    <mergeCell ref="L15:Q15"/>
+    <mergeCell ref="D10:H10"/>
+    <mergeCell ref="I10:K10"/>
+    <mergeCell ref="A7:S7"/>
+    <mergeCell ref="I8:K8"/>
+    <mergeCell ref="D8:H8"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="B14:S14"/>
+    <mergeCell ref="B12:S12"/>
+    <mergeCell ref="R11:S11"/>
+    <mergeCell ref="A13:S13"/>
+    <mergeCell ref="O11:Q11"/>
+    <mergeCell ref="A14:A17"/>
+    <mergeCell ref="L10:N10"/>
+    <mergeCell ref="R10:S10"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
